--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_1_38.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_1_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4082604.487914938</v>
+        <v>4080724.308144609</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673436</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100.7763998124752</v>
+        <v>133.3583373707304</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +753,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250842</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -823,22 +823,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>18.3768222575565</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -865,10 +865,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>230.2634979541062</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>237.9332843063845</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>168.8841199149501</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,10 +944,10 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -956,10 +956,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>120.4120358099647</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1096,10 +1096,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1108,19 +1108,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>13.808901714272</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1136,13 +1136,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>15.1448323868141</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,16 +1178,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>219.1570781143516</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1196,10 +1196,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>59.72683757586846</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1354,10 +1354,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>216.6993815150879</v>
       </c>
     </row>
     <row r="11">
@@ -1382,13 +1382,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896904</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,25 +1528,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>36.31437750815284</v>
       </c>
       <c r="U13" t="n">
-        <v>247.4216449242168</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385011</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1810,19 +1810,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>118.4898845065119</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>59.77945773664956</v>
       </c>
     </row>
     <row r="17">
@@ -1856,13 +1856,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,16 +1999,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>168.7913288562258</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>156.2061697729164</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>135.3933113208577</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>91.46935119348166</v>
+        <v>98.92370107808136</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>210.5069097326778</v>
       </c>
       <c r="U19" t="n">
         <v>275.1967010728659</v>
@@ -2062,13 +2062,13 @@
         <v>241.0969919981166</v>
       </c>
       <c r="W19" t="n">
-        <v>275.4823470108796</v>
+        <v>149.3819392193795</v>
       </c>
       <c r="X19" t="n">
-        <v>214.6690040633257</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>207.5440020263833</v>
+        <v>207.5440020263834</v>
       </c>
     </row>
     <row r="20">
@@ -2093,13 +2093,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
-        <v>251.0785952497999</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>168.7913288562259</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>156.2061697729164</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2251,13 +2251,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>155.4529171376662</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>55.00696535576466</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>98.92370107808139</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>186.8801586578919</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>210.5069097326779</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>39.14661165392133</v>
       </c>
       <c r="V22" t="n">
         <v>241.0969919981166</v>
@@ -2302,7 +2302,7 @@
         <v>275.4823470108796</v>
       </c>
       <c r="X22" t="n">
-        <v>214.6690040633257</v>
+        <v>214.6690040633258</v>
       </c>
       <c r="Y22" t="n">
         <v>207.5440020263834</v>
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H23" t="n">
         <v>305.2872491113177</v>
@@ -2482,7 +2482,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>135.3933113208578</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>70.41761368552076</v>
+        <v>98.92370107808139</v>
       </c>
       <c r="S25" t="n">
-        <v>186.8801586578918</v>
+        <v>186.8801586578919</v>
       </c>
       <c r="T25" t="n">
-        <v>210.5069097326778</v>
+        <v>210.5069097326779</v>
       </c>
       <c r="U25" t="n">
-        <v>275.1967010728659</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>241.0969919981166</v>
       </c>
       <c r="W25" t="n">
-        <v>275.4823470108796</v>
+        <v>179.2356473439438</v>
       </c>
       <c r="X25" t="n">
-        <v>214.6690040633257</v>
+        <v>214.6690040633258</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>207.5440020263834</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2713,10 +2713,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>156.2061697729165</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>93.7329975516967</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>98.92370107808142</v>
       </c>
       <c r="S28" t="n">
-        <v>186.8801586578918</v>
+        <v>186.8801586578919</v>
       </c>
       <c r="T28" t="n">
-        <v>210.5069097326778</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>275.1967010728659</v>
@@ -2773,13 +2773,13 @@
         <v>241.0969919981166</v>
       </c>
       <c r="W28" t="n">
-        <v>275.4823470108796</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>214.6690040633257</v>
+        <v>214.6690040633258</v>
       </c>
       <c r="Y28" t="n">
-        <v>70.41761368552135</v>
+        <v>207.5440020263834</v>
       </c>
     </row>
     <row r="29">
@@ -2792,7 +2792,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>168.7913288562259</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2956,10 +2956,10 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>70.4176136855212</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>134.3803966972199</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2968,7 +2968,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>99.3785941385606</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>98.92370107808142</v>
       </c>
       <c r="S31" t="n">
-        <v>186.8801586578918</v>
+        <v>186.8801586578919</v>
       </c>
       <c r="T31" t="n">
-        <v>210.5069097326778</v>
+        <v>210.5069097326779</v>
       </c>
       <c r="U31" t="n">
-        <v>275.1967010728659</v>
+        <v>126.7476430361206</v>
       </c>
       <c r="V31" t="n">
         <v>241.0969919981166</v>
       </c>
       <c r="W31" t="n">
-        <v>275.4823470108796</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>214.6690040633257</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>207.5440020263834</v>
       </c>
     </row>
     <row r="32">
@@ -3035,7 +3035,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3199,7 +3199,7 @@
         <v>77.28915789329061</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H34" t="n">
         <v>80.78193823789549</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898717</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E40" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="41">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898722</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857175</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692856</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329064</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373698</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789552</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463137</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415218</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4147,13 +4147,13 @@
         <v>77.28915789329059</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H46" t="n">
         <v>80.78193823789547</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1865.381229508782</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="C2" t="n">
-        <v>1496.41871256837</v>
+        <v>940.7524019189443</v>
       </c>
       <c r="D2" t="n">
-        <v>1138.15301396162</v>
+        <v>940.7524019189443</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.961649073313</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.282427122408</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R2" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U2" t="n">
-        <v>2642.120401548716</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="V2" t="n">
-        <v>2642.120401548716</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2642.120401548716</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>2642.120401548716</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y2" t="n">
-        <v>2251.981069572904</v>
+        <v>1309.714918859356</v>
       </c>
     </row>
     <row r="3">
@@ -4383,67 +4383,67 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4452,7 +4452,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E4" t="n">
-        <v>709.5665374816297</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F4" t="n">
-        <v>562.6765899837193</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G4" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245973</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>286.532373693199</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>286.532373693199</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>286.532373693199</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1662.48357412947</v>
+        <v>944.4614752479206</v>
       </c>
       <c r="C5" t="n">
-        <v>1662.48357412947</v>
+        <v>944.4614752479206</v>
       </c>
       <c r="D5" t="n">
-        <v>1422.14692331494</v>
+        <v>944.4614752479206</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>558.6732226496763</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>551.7277219004728</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4577,7 +4577,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4592,25 +4592,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.54646147304</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V5" t="n">
-        <v>1662.48357412947</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W5" t="n">
-        <v>1662.48357412947</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="X5" t="n">
-        <v>1662.48357412947</v>
+        <v>1331.061315312042</v>
       </c>
       <c r="Y5" t="n">
-        <v>1662.48357412947</v>
+        <v>1331.061315312042</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4644,43 +4644,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>325.6879402326646</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>325.6879402326646</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>175.5713008203288</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>175.5713008203288</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>175.5713008203288</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>507.3364050629043</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4778,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>863.1126181035243</v>
+        <v>955.5060781830496</v>
       </c>
       <c r="C8" t="n">
-        <v>494.1501011631125</v>
+        <v>586.5435612426379</v>
       </c>
       <c r="D8" t="n">
-        <v>494.1501011631125</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
         <v>881.2824271224076</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2025.937460860856</v>
       </c>
       <c r="V8" t="n">
-        <v>2366.086203674652</v>
+        <v>1694.874573517285</v>
       </c>
       <c r="W8" t="n">
-        <v>2013.317548404538</v>
+        <v>1342.105918247171</v>
       </c>
       <c r="X8" t="n">
-        <v>1639.851790143458</v>
+        <v>1342.105918247171</v>
       </c>
       <c r="Y8" t="n">
-        <v>1249.712458167646</v>
+        <v>1342.105918247171</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424006</v>
@@ -4896,28 +4896,28 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>667.7988452409105</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>498.8626623130036</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>272.8312459770189</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5015,19 +5015,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155881</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
         <v>488.193237080547</v>
@@ -5042,22 +5042,22 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5075,16 +5075,16 @@
         <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5118,28 +5118,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126481</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>644.6755122555221</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>891.440640161986</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M12" t="n">
-        <v>1198.760773441948</v>
+        <v>841.8631140141288</v>
       </c>
       <c r="N12" t="n">
-        <v>1528.62340110598</v>
+        <v>1443.347833878256</v>
       </c>
       <c r="O12" t="n">
-        <v>1808.163466324677</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,46 +5173,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>994.3109288932102</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>825.3747459653033</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>675.2581065529675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>359.169691290395</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
         <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1151.239967633105</v>
       </c>
       <c r="U13" t="n">
-        <v>1248.995417099097</v>
+        <v>862.1113288466634</v>
       </c>
       <c r="V13" t="n">
-        <v>994.3109288932102</v>
+        <v>607.4268406407765</v>
       </c>
       <c r="W13" t="n">
-        <v>994.3109288932102</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="X13" t="n">
-        <v>994.3109288932102</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y13" t="n">
-        <v>994.3109288932102</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="14">
@@ -5270,16 +5270,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5294,7 +5294,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5303,7 +5303,7 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
@@ -5355,28 +5355,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126481</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571608</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636247</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643586</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>2208.321444831246</v>
       </c>
       <c r="P15" t="n">
-        <v>2317.834075963124</v>
+        <v>2413.343925613455</v>
       </c>
       <c r="Q15" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1379.229518531123</v>
+        <v>964.1357418247861</v>
       </c>
       <c r="U16" t="n">
-        <v>1090.100879744681</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V16" t="n">
-        <v>835.416391538794</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="W16" t="n">
-        <v>545.9992215018333</v>
+        <v>385.5899330013835</v>
       </c>
       <c r="X16" t="n">
-        <v>318.0096706038159</v>
+        <v>157.6003821033662</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
         <v>1701.09316900344</v>
@@ -5501,22 +5501,22 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5531,13 +5531,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
         <v>4726.561275231264</v>
@@ -5546,16 +5546,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5568,16 +5568,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>987.4312590525784</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C18" t="n">
-        <v>812.9782297714514</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D18" t="n">
-        <v>664.0438201102002</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E18" t="n">
-        <v>504.8063651047446</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
         <v>358.2718071316295</v>
@@ -5589,31 +5589,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>223.1552313137094</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>634.045500158222</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L18" t="n">
-        <v>880.8106280646859</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M18" t="n">
-        <v>1188.130761344647</v>
+        <v>1039.489963795367</v>
       </c>
       <c r="N18" t="n">
-        <v>1517.99338900868</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O18" t="n">
-        <v>1797.533454227377</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P18" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5628,7 +5628,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V18" t="n">
-        <v>1825.495751771335</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W18" t="n">
         <v>1571.258395043133</v>
@@ -5647,34 +5647,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028587</v>
+        <v>391.7620218580375</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028587</v>
+        <v>233.9780119864048</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028587</v>
+        <v>233.9780119864048</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>120.53002873665</v>
+        <v>120.5300287366499</v>
       </c>
       <c r="K19" t="n">
-        <v>281.6456777937158</v>
+        <v>281.6456777937157</v>
       </c>
       <c r="L19" t="n">
         <v>540.2879676172993</v>
@@ -5695,28 +5695,28 @@
         <v>1586.358229057537</v>
       </c>
       <c r="R19" t="n">
-        <v>1493.964945023717</v>
+        <v>1486.435298675636</v>
       </c>
       <c r="S19" t="n">
-        <v>1493.964945023717</v>
+        <v>1486.435298675636</v>
       </c>
       <c r="T19" t="n">
-        <v>1493.964945023717</v>
+        <v>1273.802056521416</v>
       </c>
       <c r="U19" t="n">
-        <v>1215.98847929355</v>
+        <v>995.8255907912491</v>
       </c>
       <c r="V19" t="n">
-        <v>972.4561641439368</v>
+        <v>752.2932756416363</v>
       </c>
       <c r="W19" t="n">
-        <v>694.1911671632504</v>
+        <v>601.4024279452935</v>
       </c>
       <c r="X19" t="n">
-        <v>477.3537893215073</v>
+        <v>601.4024279452935</v>
       </c>
       <c r="Y19" t="n">
-        <v>267.7133832342514</v>
+        <v>391.7620218580375</v>
       </c>
     </row>
     <row r="20">
@@ -5726,34 +5726,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5762,7 +5762,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5777,25 +5777,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5829,28 +5829,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126481</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571608</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636247</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1632.773754790662</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2302.237516093321</v>
       </c>
       <c r="P21" t="n">
-        <v>2358.217138262063</v>
+        <v>2507.25999687553</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>467.5868412242726</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>309.8028313526398</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>309.8028313526398</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>309.8028313526398</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>309.8028313526398</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>152.779682728735</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>152.779682728735</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
@@ -5929,31 +5929,31 @@
         <v>1536.594541272926</v>
       </c>
       <c r="Q22" t="n">
-        <v>1586.358229057536</v>
+        <v>1586.358229057537</v>
       </c>
       <c r="R22" t="n">
-        <v>1586.358229057536</v>
+        <v>1486.435298675636</v>
       </c>
       <c r="S22" t="n">
-        <v>1586.358229057536</v>
+        <v>1297.667461647463</v>
       </c>
       <c r="T22" t="n">
-        <v>1586.358229057536</v>
+        <v>1085.034219493242</v>
       </c>
       <c r="U22" t="n">
-        <v>1586.358229057536</v>
+        <v>1045.492187519584</v>
       </c>
       <c r="V22" t="n">
-        <v>1342.825913907924</v>
+        <v>801.9598723699714</v>
       </c>
       <c r="W22" t="n">
-        <v>1064.560916927237</v>
+        <v>523.694875389285</v>
       </c>
       <c r="X22" t="n">
-        <v>847.7235390854942</v>
+        <v>306.8574975475418</v>
       </c>
       <c r="Y22" t="n">
-        <v>638.0831329982382</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5969,28 +5969,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
@@ -5999,7 +5999,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6066,28 +6066,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>223.1552313137088</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>634.0455001582214</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>880.8106280646855</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M24" t="n">
-        <v>1188.130761344647</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N24" t="n">
-        <v>1517.99338900868</v>
+        <v>1171.725741678162</v>
       </c>
       <c r="O24" t="n">
-        <v>1797.533454227377</v>
+        <v>1841.189502980821</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,13 +6121,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>233.9780119864048</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>233.9780119864048</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>233.9780119864048</v>
       </c>
       <c r="E25" t="n">
         <v>97.21709146028584</v>
@@ -6148,19 +6148,19 @@
         <v>120.53002873665</v>
       </c>
       <c r="K25" t="n">
-        <v>281.6456777937158</v>
+        <v>281.6456777937157</v>
       </c>
       <c r="L25" t="n">
-        <v>540.2879676172994</v>
+        <v>540.2879676172993</v>
       </c>
       <c r="M25" t="n">
-        <v>822.7849551969368</v>
+        <v>822.7849551969364</v>
       </c>
       <c r="N25" t="n">
-        <v>1104.259309036939</v>
+        <v>1104.259309036938</v>
       </c>
       <c r="O25" t="n">
-        <v>1349.06453185479</v>
+        <v>1349.064531854789</v>
       </c>
       <c r="P25" t="n">
         <v>1536.594541272927</v>
@@ -6169,28 +6169,28 @@
         <v>1586.358229057537</v>
       </c>
       <c r="R25" t="n">
-        <v>1515.22932634489</v>
+        <v>1486.435298675636</v>
       </c>
       <c r="S25" t="n">
-        <v>1326.461489316716</v>
+        <v>1297.667461647463</v>
       </c>
       <c r="T25" t="n">
-        <v>1113.828247162496</v>
+        <v>1085.034219493243</v>
       </c>
       <c r="U25" t="n">
-        <v>835.8517814323282</v>
+        <v>1085.034219493243</v>
       </c>
       <c r="V25" t="n">
-        <v>592.3194662827156</v>
+        <v>841.5019043436301</v>
       </c>
       <c r="W25" t="n">
-        <v>314.054469302029</v>
+        <v>660.455795915404</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028584</v>
+        <v>443.6184180736608</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>233.9780119864048</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6203,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
         <v>1701.09316900344</v>
@@ -6212,13 +6212,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
@@ -6257,16 +6257,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6303,19 +6303,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>223.1552313137088</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>634.0455001582214</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>880.8106280646855</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M27" t="n">
-        <v>1188.130761344647</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N27" t="n">
-        <v>1517.99338900868</v>
+        <v>1171.725741678162</v>
       </c>
       <c r="O27" t="n">
         <v>1797.533454227377</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028587</v>
+        <v>349.680896838683</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028587</v>
+        <v>191.8968869670502</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>120.5300287366501</v>
+        <v>120.53002873665</v>
       </c>
       <c r="K28" t="n">
-        <v>281.6456777937158</v>
+        <v>281.6456777937157</v>
       </c>
       <c r="L28" t="n">
-        <v>540.2879676172994</v>
+        <v>540.2879676172992</v>
       </c>
       <c r="M28" t="n">
-        <v>822.7849551969364</v>
+        <v>822.7849551969362</v>
       </c>
       <c r="N28" t="n">
         <v>1104.259309036938</v>
       </c>
       <c r="O28" t="n">
-        <v>1349.06453185479</v>
+        <v>1349.064531854789</v>
       </c>
       <c r="P28" t="n">
-        <v>1536.594541272927</v>
+        <v>1536.594541272926</v>
       </c>
       <c r="Q28" t="n">
-        <v>1586.358229057537</v>
+        <v>1586.358229057536</v>
       </c>
       <c r="R28" t="n">
-        <v>1586.358229057537</v>
+        <v>1486.435298675636</v>
       </c>
       <c r="S28" t="n">
-        <v>1397.590392029364</v>
+        <v>1297.667461647463</v>
       </c>
       <c r="T28" t="n">
-        <v>1184.957149875143</v>
+        <v>1297.667461647463</v>
       </c>
       <c r="U28" t="n">
-        <v>906.9806841449758</v>
+        <v>1019.690995917295</v>
       </c>
       <c r="V28" t="n">
-        <v>663.4483689953631</v>
+        <v>776.1586807676823</v>
       </c>
       <c r="W28" t="n">
-        <v>385.1833720146766</v>
+        <v>776.1586807676823</v>
       </c>
       <c r="X28" t="n">
-        <v>168.3459941729337</v>
+        <v>559.3213029259391</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028587</v>
+        <v>349.680896838683</v>
       </c>
     </row>
     <row r="29">
@@ -6440,19 +6440,19 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
@@ -6461,10 +6461,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6473,7 +6473,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6488,22 +6488,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6540,28 +6540,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>168.3459941729335</v>
+        <v>333.3372842237005</v>
       </c>
       <c r="C31" t="n">
-        <v>168.3459941729335</v>
+        <v>333.3372842237005</v>
       </c>
       <c r="D31" t="n">
-        <v>168.3459941729335</v>
+        <v>333.3372842237005</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028586</v>
+        <v>333.3372842237005</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028586</v>
+        <v>197.5995097820642</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028586</v>
+        <v>197.5995097820642</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028586</v>
+        <v>197.5995097820642</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>120.5300287366501</v>
+        <v>120.53002873665</v>
       </c>
       <c r="K31" t="n">
-        <v>281.6456777937159</v>
+        <v>281.6456777937156</v>
       </c>
       <c r="L31" t="n">
-        <v>540.2879676172995</v>
+        <v>540.2879676172992</v>
       </c>
       <c r="M31" t="n">
-        <v>822.7849551969366</v>
+        <v>822.7849551969362</v>
       </c>
       <c r="N31" t="n">
         <v>1104.259309036938</v>
       </c>
       <c r="O31" t="n">
-        <v>1349.06453185479</v>
+        <v>1349.064531854789</v>
       </c>
       <c r="P31" t="n">
-        <v>1536.594541272927</v>
+        <v>1536.594541272926</v>
       </c>
       <c r="Q31" t="n">
-        <v>1586.358229057537</v>
+        <v>1586.358229057536</v>
       </c>
       <c r="R31" t="n">
-        <v>1586.358229057537</v>
+        <v>1486.435298675636</v>
       </c>
       <c r="S31" t="n">
-        <v>1397.590392029363</v>
+        <v>1297.667461647462</v>
       </c>
       <c r="T31" t="n">
-        <v>1184.957149875143</v>
+        <v>1085.034219493242</v>
       </c>
       <c r="U31" t="n">
-        <v>906.9806841449758</v>
+        <v>957.0062972345346</v>
       </c>
       <c r="V31" t="n">
-        <v>663.4483689953631</v>
+        <v>713.473982084922</v>
       </c>
       <c r="W31" t="n">
-        <v>385.1833720146767</v>
+        <v>713.473982084922</v>
       </c>
       <c r="X31" t="n">
-        <v>168.3459941729335</v>
+        <v>713.473982084922</v>
       </c>
       <c r="Y31" t="n">
-        <v>168.3459941729335</v>
+        <v>503.8335759976661</v>
       </c>
     </row>
     <row r="32">
@@ -6677,7 +6677,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
         <v>1701.09316900344</v>
@@ -6686,13 +6686,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
@@ -6701,7 +6701,7 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6710,7 +6710,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6731,16 +6731,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6795,10 +6795,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2358.217138262064</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6838,37 +6838,37 @@
         <v>559.3441472229665</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506716</v>
+        <v>478.0475988506719</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083199</v>
+        <v>398.9545963083197</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504508</v>
+        <v>320.8847398504504</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103124</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982968</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525396</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254951</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649686</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N34" t="n">
-        <v>1386.860941116387</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O34" t="n">
         <v>1688.186490350129</v>
@@ -6880,13 +6880,13 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942115</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T34" t="n">
-        <v>1710.200584771662</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
         <v>1489.892037025262</v>
@@ -6898,7 +6898,7 @@
         <v>1083.430560862496</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045201</v>
+        <v>924.26110100452</v>
       </c>
       <c r="Y34" t="n">
         <v>772.288612901031</v>
@@ -7014,22 +7014,22 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1632.773754790662</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>1912.313820009359</v>
       </c>
       <c r="P36" t="n">
         <v>2317.834075963124</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.460239110833</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083201</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504508</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103125</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
@@ -7093,28 +7093,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525403</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254959</v>
+        <v>394.686330625496</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649695</v>
       </c>
       <c r="M37" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N37" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O37" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P37" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R37" t="n">
         <v>1996.265827986523</v>
@@ -7129,16 +7129,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010316</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="38">
@@ -7172,13 +7172,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
@@ -7251,25 +7251,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1564.731711769082</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1894.594339433115</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2174.134404651812</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q39" t="n">
         <v>2612.943493278838</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108338</v>
+        <v>659.4602391108322</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229679</v>
+        <v>559.3441472229663</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506732</v>
+        <v>478.0475988506716</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083211</v>
+        <v>398.9545963083199</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504519</v>
+        <v>320.8847398504508</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103125</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982969</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525398</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254953</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M40" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N40" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O40" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P40" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986524</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T40" t="n">
-        <v>1710.200584771664</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
-        <v>1083.430560862498</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045214</v>
+        <v>924.2611010045198</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010324</v>
+        <v>772.2886129010308</v>
       </c>
     </row>
     <row r="41">
@@ -7397,10 +7397,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
@@ -7436,10 +7436,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U41" t="n">
         <v>4262.3578574653</v>
@@ -7494,22 +7494,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>1088.787142923176</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1396.107276203138</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1725.969903867171</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P42" t="n">
-        <v>2358.217138262064</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C43" t="n">
         <v>559.3441472229672</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E43" t="n">
         <v>398.9545963083206</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G43" t="n">
         <v>221.529509210313</v>
@@ -7564,16 +7564,16 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649694</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7588,7 +7588,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R43" t="n">
         <v>1996.265827986523</v>
@@ -7600,19 +7600,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="44">
@@ -7625,28 +7625,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155884</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K44" t="n">
         <v>889.2841917514085</v>
@@ -7679,16 +7679,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7728,25 +7728,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>634.0455001582214</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L45" t="n">
-        <v>880.8106280646855</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M45" t="n">
-        <v>1188.130761344647</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N45" t="n">
-        <v>1517.99338900868</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O45" t="n">
-        <v>1797.533454227377</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7792,34 +7792,34 @@
         <v>398.9545963083206</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G46" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649688</v>
       </c>
       <c r="M46" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N46" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O46" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P46" t="n">
         <v>1932.236826184156</v>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8064,7 +8064,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516222</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8310,10 +8310,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415595</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8544,10 +8544,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783515</v>
       </c>
       <c r="P9" t="n">
-        <v>199.02694854156</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8766,10 +8766,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>234.4116509503174</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8778,19 +8778,19 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>274.3657496970649</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.7842838544522</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,13 +9003,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9018,16 +9018,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>277.6717966208072</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>124.3400780863228</v>
       </c>
       <c r="R15" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298389</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9240,31 +9240,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>85.30006332127877</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>73.53204524669997</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9477,31 +9477,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>180.0237016735881</v>
+        <v>18.73797368291355</v>
       </c>
       <c r="R21" t="n">
-        <v>34.7842838544522</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9714,10 +9714,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>85.3000633212781</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9729,16 +9729,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>285.1031356539331</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9951,10 +9951,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>85.3000633212781</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9966,7 +9966,7 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>349.7653003338568</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10188,16 +10188,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>360.5026862907256</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -10206,13 +10206,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208064</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10349,7 +10349,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711646</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
@@ -10443,13 +10443,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208064</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>180.0237016735871</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10662,16 +10662,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -10680,7 +10680,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208064</v>
+        <v>202.5230052237941</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10829,7 +10829,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10899,7 +10899,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10908,7 +10908,7 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -10917,10 +10917,10 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208064</v>
+        <v>148.1350559470645</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11072,7 +11072,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627452</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11142,7 +11142,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>169.2863157167184</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11157,10 +11157,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>180.0237016735871</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11303,7 +11303,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11376,7 +11376,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>223.6742649934479</v>
+        <v>234.4116509503169</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11397,7 +11397,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>185.2331835502364</v>
       </c>
       <c r="U13" t="n">
-        <v>38.81570747436052</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23698,19 +23698,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>103.0576765518774</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>158.8051956154452</v>
       </c>
     </row>
     <row r="17">
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>168.7913288562259</v>
       </c>
       <c r="C19" t="n">
-        <v>156.2061697729164</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>137.5748216925009</v>
       </c>
       <c r="E19" t="n">
-        <v>135.3933113208577</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>134.3803966972198</v>
       </c>
       <c r="G19" t="n">
-        <v>155.4529171376661</v>
+        <v>155.4529171376662</v>
       </c>
       <c r="H19" t="n">
         <v>137.8731770418247</v>
       </c>
       <c r="I19" t="n">
-        <v>99.37859413856053</v>
+        <v>99.37859413856056</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>7.454349884599679</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>186.8801586578918</v>
       </c>
       <c r="T19" t="n">
-        <v>210.5069097326778</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23950,10 +23950,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>126.1004077915001</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>214.6690040633257</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>168.7913288562259</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>156.2061697729164</v>
       </c>
       <c r="D22" t="n">
-        <v>137.5748216925009</v>
+        <v>137.574821692501</v>
       </c>
       <c r="E22" t="n">
-        <v>135.3933113208577</v>
+        <v>135.3933113208578</v>
       </c>
       <c r="F22" t="n">
-        <v>134.3803966972198</v>
+        <v>134.3803966972199</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>155.4529171376662</v>
       </c>
       <c r="H22" t="n">
         <v>137.8731770418247</v>
       </c>
       <c r="I22" t="n">
-        <v>44.3716287827959</v>
+        <v>99.3785941385606</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,16 +24172,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>98.92370107808136</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>186.8801586578918</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>210.5069097326778</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>275.1967010728659</v>
+        <v>236.0500894189446</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24367,13 +24367,13 @@
         <v>156.2061697729164</v>
       </c>
       <c r="D25" t="n">
-        <v>137.5748216925009</v>
+        <v>137.574821692501</v>
       </c>
       <c r="E25" t="n">
-        <v>135.3933113208577</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>134.3803966972198</v>
+        <v>134.3803966972199</v>
       </c>
       <c r="G25" t="n">
         <v>155.4529171376662</v>
@@ -24382,7 +24382,7 @@
         <v>137.8731770418247</v>
       </c>
       <c r="I25" t="n">
-        <v>99.37859413856054</v>
+        <v>99.3785941385606</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>28.50608739256059</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24418,19 +24418,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>275.1967010728659</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>96.24669966693577</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>207.5440020263834</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24601,25 +24601,25 @@
         <v>168.7913288562259</v>
       </c>
       <c r="C28" t="n">
-        <v>156.2061697729164</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>137.5748216925009</v>
+        <v>43.84182414080429</v>
       </c>
       <c r="E28" t="n">
-        <v>135.3933113208577</v>
+        <v>135.3933113208578</v>
       </c>
       <c r="F28" t="n">
-        <v>134.3803966972198</v>
+        <v>134.3803966972199</v>
       </c>
       <c r="G28" t="n">
         <v>155.4529171376662</v>
       </c>
       <c r="H28" t="n">
-        <v>137.8731770418247</v>
+        <v>137.8731770418248</v>
       </c>
       <c r="I28" t="n">
-        <v>99.37859413856054</v>
+        <v>99.37859413856062</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>98.92370107808135</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>210.5069097326779</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24661,13 +24661,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>275.4823470108796</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>137.126388340862</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>168.7913288562259</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>156.2061697729164</v>
+        <v>156.2061697729165</v>
       </c>
       <c r="D31" t="n">
-        <v>137.5748216925009</v>
+        <v>137.574821692501</v>
       </c>
       <c r="E31" t="n">
-        <v>64.97569763533654</v>
+        <v>135.3933113208578</v>
       </c>
       <c r="F31" t="n">
-        <v>134.3803966972198</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>155.4529171376662</v>
       </c>
       <c r="H31" t="n">
-        <v>137.8731770418247</v>
+        <v>137.8731770418248</v>
       </c>
       <c r="I31" t="n">
-        <v>99.37859413856054</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>98.92370107808135</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24892,19 +24892,19 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>148.4490580367454</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>275.4823470108796</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>214.6690040633258</v>
       </c>
       <c r="Y31" t="n">
-        <v>207.5440020263834</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>632775.4335457659</v>
+        <v>632775.433545766</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>637829.2183801857</v>
+        <v>637829.2183801858</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>637829.2183801858</v>
+        <v>637829.2183801857</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>637829.2183801858</v>
+        <v>637829.2183801855</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>637829.2183801858</v>
+        <v>637829.2183801855</v>
       </c>
     </row>
     <row r="12">
@@ -26311,19 +26311,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>779989.6813710689</v>
+        <v>779989.6813710688</v>
       </c>
       <c r="C2" t="n">
-        <v>779989.681371069</v>
+        <v>779989.6813710687</v>
       </c>
       <c r="D2" t="n">
-        <v>779989.6813710689</v>
+        <v>779989.6813710688</v>
       </c>
       <c r="E2" t="n">
-        <v>742955.2135016471</v>
+        <v>742955.213501647</v>
       </c>
       <c r="F2" t="n">
-        <v>742955.2135016472</v>
+        <v>742955.2135016476</v>
       </c>
       <c r="G2" t="n">
         <v>748956.5829925191</v>
@@ -26332,28 +26332,28 @@
         <v>748956.5829925191</v>
       </c>
       <c r="I2" t="n">
-        <v>748956.5829925189</v>
+        <v>748956.5829925193</v>
       </c>
       <c r="J2" t="n">
         <v>748956.5829925191</v>
       </c>
       <c r="K2" t="n">
-        <v>748956.5829925197</v>
+        <v>748956.582992519</v>
       </c>
       <c r="L2" t="n">
-        <v>779989.6813710695</v>
+        <v>779989.6813710694</v>
       </c>
       <c r="M2" t="n">
         <v>779989.6813710695</v>
       </c>
       <c r="N2" t="n">
-        <v>779989.6813710695</v>
+        <v>779989.6813710696</v>
       </c>
       <c r="O2" t="n">
+        <v>779989.6813710697</v>
+      </c>
+      <c r="P2" t="n">
         <v>779989.6813710694</v>
-      </c>
-      <c r="P2" t="n">
-        <v>779989.6813710693</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145447</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,19 +26372,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768959</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>8832.52106056917</v>
+        <v>8832.521060569132</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>176423.219192593</v>
@@ -26424,37 +26424,37 @@
         <v>147917.0487159208</v>
       </c>
       <c r="E4" t="n">
-        <v>7916.731656007531</v>
+        <v>7916.731656007485</v>
       </c>
       <c r="F4" t="n">
-        <v>7916.731656007521</v>
+        <v>7916.731656007478</v>
       </c>
       <c r="G4" t="n">
-        <v>11549.65615884681</v>
+        <v>11549.6561588468</v>
       </c>
       <c r="H4" t="n">
-        <v>11549.65615884685</v>
+        <v>11549.65615884679</v>
       </c>
       <c r="I4" t="n">
         <v>11549.6561588468</v>
       </c>
       <c r="J4" t="n">
-        <v>11549.6561588468</v>
+        <v>11549.65615884679</v>
       </c>
       <c r="K4" t="n">
-        <v>11549.65615884682</v>
+        <v>11549.65615884678</v>
       </c>
       <c r="L4" t="n">
-        <v>30335.51889732797</v>
+        <v>30335.51889732796</v>
       </c>
       <c r="M4" t="n">
         <v>30335.51889732797</v>
       </c>
       <c r="N4" t="n">
-        <v>30335.51889732797</v>
+        <v>30335.51889732796</v>
       </c>
       <c r="O4" t="n">
-        <v>30335.51889732795</v>
+        <v>30335.51889732796</v>
       </c>
       <c r="P4" t="n">
         <v>30335.51889732796</v>
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26479,10 +26479,10 @@
         <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>92915.50246501788</v>
+        <v>92915.50246501787</v>
       </c>
       <c r="H5" t="n">
         <v>92915.50246501787</v>
@@ -26491,10 +26491,10 @@
         <v>92915.50246501787</v>
       </c>
       <c r="J5" t="n">
-        <v>92915.50246501787</v>
+        <v>92915.50246501785</v>
       </c>
       <c r="K5" t="n">
-        <v>92915.50246501787</v>
+        <v>92915.50246501785</v>
       </c>
       <c r="L5" t="n">
         <v>97715.10582002539</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-40754.32462280578</v>
+        <v>-40754.32462280613</v>
       </c>
       <c r="C6" t="n">
-        <v>549213.5545917387</v>
+        <v>549213.5545917385</v>
       </c>
       <c r="D6" t="n">
-        <v>549213.5545917387</v>
+        <v>549213.5545917385</v>
       </c>
       <c r="E6" t="n">
-        <v>117891.1194200271</v>
+        <v>117793.6602940547</v>
       </c>
       <c r="F6" t="n">
-        <v>643051.1558969232</v>
+        <v>642953.6967709514</v>
       </c>
       <c r="G6" t="n">
-        <v>635658.9033080853</v>
+        <v>635577.2372597208</v>
       </c>
       <c r="H6" t="n">
-        <v>644491.4243686545</v>
+        <v>644409.7583202899</v>
       </c>
       <c r="I6" t="n">
-        <v>644491.4243686541</v>
+        <v>644409.75832029</v>
       </c>
       <c r="J6" t="n">
-        <v>468068.2051760615</v>
+        <v>467986.5391276969</v>
       </c>
       <c r="K6" t="n">
-        <v>644491.4243686551</v>
+        <v>644409.7583202898</v>
       </c>
       <c r="L6" t="n">
-        <v>597433.5445500036</v>
+        <v>597433.5445500035</v>
       </c>
       <c r="M6" t="n">
         <v>517138.041419879</v>
       </c>
       <c r="N6" t="n">
-        <v>651939.0566537161</v>
+        <v>651939.0566537163</v>
       </c>
       <c r="O6" t="n">
+        <v>651939.0566537164</v>
+      </c>
+      <c r="P6" t="n">
         <v>651939.056653716</v>
-      </c>
-      <c r="P6" t="n">
-        <v>651939.0566537159</v>
       </c>
     </row>
   </sheetData>
@@ -26698,19 +26698,19 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>11.04065132571146</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="H2" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="I2" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="J2" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="K2" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="L2" t="n">
         <v>68.13189012964064</v>
@@ -26719,10 +26719,10 @@
         <v>68.13189012964067</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P2" t="n">
         <v>68.13189012964065</v>
@@ -26735,25 +26735,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541003</v>
@@ -26777,7 +26777,7 @@
         <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>11.04065132571146</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370134</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>11.04065132571146</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>281.1539702597866</v>
+        <v>248.5720327015314</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27476,7 +27476,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.202682480856311e-13</v>
+        <v>-2.415845301584341e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27543,22 +27543,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>128.0571403890127</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,16 +27579,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27597,7 +27597,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>56.25950038248479</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>116.7497573142985</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>244.9000501058449</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,10 +27664,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27676,10 +27676,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27771,13 +27771,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27786,7 +27786,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>46.89776644908618</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27828,19 +27828,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>272.4729725277057</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27856,13 +27856,13 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>366.7855376854477</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27871,7 +27871,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,16 +27898,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>32.06708939393769</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27916,10 +27916,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>120.1051426060688</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,13 +28056,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28074,10 +28074,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>1.88527183700694</v>
       </c>
     </row>
     <row r="11">
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.041087216435699e-12</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28378,7 +28378,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>7.958078640513122e-13</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>11.04065132571146</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="C19" t="n">
-        <v>11.04065132571146</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="D19" t="n">
-        <v>11.04065132571146</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="E19" t="n">
-        <v>11.04065132571146</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="F19" t="n">
-        <v>11.04065132571146</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="G19" t="n">
-        <v>11.04065132571146</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="H19" t="n">
-        <v>11.04065132571146</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="I19" t="n">
-        <v>11.04065132571146</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="J19" t="n">
-        <v>11.04065132571146</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="K19" t="n">
-        <v>11.04065132571146</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="L19" t="n">
-        <v>11.04065132571146</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="M19" t="n">
-        <v>11.04065132571146</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="N19" t="n">
-        <v>11.04065132571146</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="O19" t="n">
-        <v>11.04065132571146</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="P19" t="n">
-        <v>11.04065132571146</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="Q19" t="n">
-        <v>11.04065132571146</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="R19" t="n">
-        <v>11.04065132571146</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="S19" t="n">
-        <v>11.04065132571146</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="T19" t="n">
-        <v>11.04065132571146</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="U19" t="n">
-        <v>11.04065132571146</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="V19" t="n">
-        <v>11.04065132571146</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="W19" t="n">
-        <v>11.04065132571146</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="X19" t="n">
-        <v>11.04065132571146</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="Y19" t="n">
-        <v>11.04065132571146</v>
+        <v>11.04065132571142</v>
       </c>
     </row>
     <row r="20">
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -28855,7 +28855,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>1.080024958355352e-12</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="C22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="D22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="E22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="F22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="G22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="H22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="I22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="J22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="K22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="L22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="M22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="N22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="O22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="P22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="Q22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="R22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="S22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="T22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="U22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="V22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="W22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="X22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="Y22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571139</v>
       </c>
     </row>
     <row r="23">
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="C25" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="D25" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="E25" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="F25" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="G25" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="H25" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="I25" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="J25" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="K25" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="L25" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="M25" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="N25" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="O25" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="P25" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="Q25" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="R25" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="S25" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="T25" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="U25" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="V25" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="W25" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="X25" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571139</v>
       </c>
       <c r="Y25" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571139</v>
       </c>
     </row>
     <row r="26">
@@ -29293,7 +29293,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="C28" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="D28" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="E28" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="F28" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="G28" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="H28" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="I28" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="J28" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="K28" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="L28" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="M28" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="N28" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="O28" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="P28" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="Q28" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="R28" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="S28" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="T28" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="U28" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="V28" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="W28" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="X28" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="Y28" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571137</v>
       </c>
     </row>
     <row r="29">
@@ -29512,7 +29512,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="C31" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="D31" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="E31" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="F31" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="G31" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="H31" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="I31" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="J31" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="K31" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="L31" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="M31" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="N31" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="O31" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="P31" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="Q31" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="R31" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="S31" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="T31" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="U31" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="V31" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="W31" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="X31" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="Y31" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571137</v>
       </c>
     </row>
     <row r="32">
@@ -29755,7 +29755,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>1.70530256582424e-13</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="44">
@@ -31045,43 +31045,43 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P2" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K3" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L3" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M3" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N3" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O3" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31197,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,25 +31221,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31759,40 +31759,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31832,10 +31832,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215733</v>
@@ -31844,7 +31844,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
         <v>452.5584109724845</v>
@@ -31853,10 +31853,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710956</v>
@@ -31868,7 +31868,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31914,7 +31914,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31932,7 +31932,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
@@ -31944,10 +31944,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
         <v>0.08167695791351813</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,34 +32066,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
         <v>227.9948068710956</v>
@@ -32102,10 +32102,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361488</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32151,7 +32151,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32166,10 +32166,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,34 +32303,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
         <v>227.9948068710956</v>
@@ -32339,10 +32339,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361488</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32388,7 +32388,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32403,10 +32403,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,34 +32540,34 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
         <v>227.9948068710956</v>
@@ -32576,10 +32576,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361488</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32625,7 +32625,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32640,10 +32640,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34384,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34393,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34445,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34454,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34472,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P2" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34869,10 +34869,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O4" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35030,10 +35030,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,13 +35261,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262118</v>
       </c>
       <c r="P9" t="n">
-        <v>220.2054057751875</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>384.9870895382566</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980127</v>
+        <v>607.5603230950777</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299105</v>
@@ -35574,7 +35574,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
@@ -35586,7 +35586,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349805</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560242</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P15" t="n">
-        <v>484.7652115523318</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>212.353110871397</v>
       </c>
       <c r="R15" t="n">
-        <v>10.73738595686862</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034995</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>127.2102422761854</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504661</v>
+        <v>383.9564222971663</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980127</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686862</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>23.54842149127697</v>
+        <v>23.54842149127695</v>
       </c>
       <c r="K19" t="n">
         <v>162.743079855622</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349805</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q21" t="n">
-        <v>268.0367344586621</v>
+        <v>106.7510064679877</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>23.54842149127694</v>
+        <v>23.54842149127692</v>
       </c>
       <c r="K22" t="n">
-        <v>162.7430798556219</v>
+        <v>162.743079855622</v>
       </c>
       <c r="L22" t="n">
         <v>261.2548382056399</v>
@@ -36291,13 +36291,13 @@
         <v>284.317529131315</v>
       </c>
       <c r="O22" t="n">
-        <v>247.2780028463142</v>
+        <v>247.2780028463143</v>
       </c>
       <c r="P22" t="n">
         <v>189.4242519375122</v>
       </c>
       <c r="Q22" t="n">
-        <v>50.26635129758616</v>
+        <v>50.26635129758615</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36434,10 +36434,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>127.2102422761848</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
         <v>249.2577049560243</v>
@@ -36449,16 +36449,16 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>492.1965505854578</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,19 +36513,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>23.54842149127697</v>
+        <v>23.54842149127692</v>
       </c>
       <c r="K25" t="n">
         <v>162.743079855622</v>
       </c>
       <c r="L25" t="n">
-        <v>261.25483820564</v>
+        <v>261.2548382056399</v>
       </c>
       <c r="M25" t="n">
-        <v>285.350492504684</v>
+        <v>285.3504925046839</v>
       </c>
       <c r="N25" t="n">
-        <v>284.3175291313151</v>
+        <v>284.317529131315</v>
       </c>
       <c r="O25" t="n">
         <v>247.2780028463143</v>
@@ -36534,7 +36534,7 @@
         <v>189.4242519375122</v>
       </c>
       <c r="Q25" t="n">
-        <v>50.2663512975862</v>
+        <v>50.26635129758615</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36671,10 +36671,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>127.2102422761848</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
@@ -36686,7 +36686,7 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>632.1290025749649</v>
       </c>
       <c r="P27" t="n">
         <v>525.5561835714618</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>23.54842149127697</v>
+        <v>23.5484214912769</v>
       </c>
       <c r="K28" t="n">
-        <v>162.743079855622</v>
+        <v>162.7430798556219</v>
       </c>
       <c r="L28" t="n">
-        <v>261.25483820564</v>
+        <v>261.2548382056399</v>
       </c>
       <c r="M28" t="n">
-        <v>285.350492504684</v>
+        <v>285.3504925046839</v>
       </c>
       <c r="N28" t="n">
-        <v>284.3175291313151</v>
+        <v>284.317529131315</v>
       </c>
       <c r="O28" t="n">
         <v>247.2780028463143</v>
       </c>
       <c r="P28" t="n">
-        <v>189.4242519375122</v>
+        <v>189.4242519375121</v>
       </c>
       <c r="Q28" t="n">
-        <v>50.2663512975862</v>
+        <v>50.26635129758613</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K29" t="n">
         <v>528.6897561303331</v>
@@ -36908,16 +36908,16 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>670.9270633411919</v>
       </c>
       <c r="N30" t="n">
         <v>333.1945733980129</v>
@@ -36926,13 +36926,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523311</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>23.54842149127697</v>
+        <v>23.5484214912769</v>
       </c>
       <c r="K31" t="n">
-        <v>162.743079855622</v>
+        <v>162.7430798556219</v>
       </c>
       <c r="L31" t="n">
-        <v>261.25483820564</v>
+        <v>261.2548382056399</v>
       </c>
       <c r="M31" t="n">
-        <v>285.350492504684</v>
+        <v>285.3504925046839</v>
       </c>
       <c r="N31" t="n">
-        <v>284.3175291313151</v>
+        <v>284.317529131315</v>
       </c>
       <c r="O31" t="n">
         <v>247.2780028463143</v>
       </c>
       <c r="P31" t="n">
-        <v>189.4242519375122</v>
+        <v>189.4242519375121</v>
       </c>
       <c r="Q31" t="n">
-        <v>50.2663512975862</v>
+        <v>50.26635129758613</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,7 +37069,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
@@ -37163,13 +37163,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523311</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>268.0367344586612</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37382,16 +37382,16 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N36" t="n">
         <v>333.1945733980129</v>
@@ -37400,7 +37400,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523311</v>
+        <v>409.6164201553188</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
         <v>528.6897561303331</v>
@@ -37549,7 +37549,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K39" t="n">
         <v>415.0406756005178</v>
@@ -37628,7 +37628,7 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N39" t="n">
         <v>333.1945733980129</v>
@@ -37637,10 +37637,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523311</v>
+        <v>355.2284708785892</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R39" t="n">
         <v>10.73738595686865</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37713,10 +37713,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37792,7 +37792,7 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P41" t="n">
         <v>570.6060255109123</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37862,7 +37862,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>418.5440206727427</v>
       </c>
       <c r="M42" t="n">
         <v>310.4243770504663</v>
@@ -37877,10 +37877,10 @@
         <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
-        <v>268.0367344586612</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520614</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37950,7 +37950,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P43" t="n">
         <v>246.5154907414414</v>
@@ -38017,7 +38017,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,19 +38096,19 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>374.2497035813871</v>
+        <v>384.9870895382561</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
         <v>525.5561835714618</v>
@@ -38117,7 +38117,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38184,10 +38184,10 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
         <v>246.5154907414414</v>
